--- a/0_1_Output_Data/6_ifo_qoq_error_series_ifoCASTset/ifo_qoq_errors_latest_eval_ifoCASTset.xlsx
+++ b/0_1_Output_Data/6_ifo_qoq_error_series_ifoCASTset/ifo_qoq_errors_latest_eval_ifoCASTset.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Q0</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
   </si>
   <si>
     <t>2010-11-12 00:00:00_diff</t>
@@ -464,13 +470,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,10 +501,16 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0.1442987330518014</v>
@@ -516,9 +528,9 @@
         <v>0.5107573149741726</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0.1288797310486932</v>
@@ -542,9 +554,9 @@
         <v>0.8996575342465766</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>-0.1892426850258274</v>
@@ -562,9 +574,9 @@
         <v>0.5996575342465766</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>-0.007353730542130191</v>
@@ -588,9 +600,9 @@
         <v>0.3513800424628444</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>-0.0003424657534233932</v>
@@ -608,9 +620,9 @@
         <v>0.3513800424628444</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>-0.2658031088082966</v>
@@ -634,9 +646,9 @@
         <v>-0.2616861435726245</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>0.1513800424628444</v>
@@ -654,9 +666,9 @@
         <v>-0.1616861435726104</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>0.3209797545368506</v>
@@ -680,9 +692,9 @@
         <v>0.006547545697278667</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>-0.5616861435726075</v>
@@ -700,9 +712,9 @@
         <v>-0.09345245430272986</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>0.1011124948111295</v>
@@ -726,9 +738,9 @@
         <v>-0.0631960527640601</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>-0.04345245430273265</v>
@@ -746,9 +758,9 @@
         <v>-0.0141960527640535</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>0.1171926271014832</v>
@@ -772,9 +784,9 @@
         <v>-0.5337440296325202</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>-0.0131960527640772</v>
@@ -792,9 +804,9 @@
         <v>-0.6137440296325043</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <v>-0.01244805066298271</v>
@@ -818,9 +830,9 @@
         <v>0.004220370190890887</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>-0.4637440296324986</v>
@@ -838,9 +850,9 @@
         <v>0.0542203701908881</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>1.250033774003649</v>
@@ -867,9 +879,9 @@
         <v>0.8340013360053379</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>-0.4859499320784204</v>
@@ -893,9 +905,9 @@
         <v>0.7830013360053644</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>1.154664484451696</v>
@@ -915,10 +927,22 @@
       <c r="G19">
         <v>0.6840013360053606</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="H19">
+        <v>2.329873611643036</v>
+      </c>
+      <c r="I19">
+        <v>9.174120406567614</v>
+      </c>
+      <c r="J19">
+        <v>-8.376533676533697</v>
+      </c>
+      <c r="K19">
+        <v>-0.66713707687755</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B20">
         <v>-0.2457796298090977</v>
@@ -935,10 +959,22 @@
       <c r="F20">
         <v>0.634001336005352</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="G20">
+        <v>2.329873611643053</v>
+      </c>
+      <c r="H20">
+        <v>9.174120406567631</v>
+      </c>
+      <c r="I20">
+        <v>-8.376533676533679</v>
+      </c>
+      <c r="J20">
+        <v>-0.6671370768775329</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B21">
         <v>-0.5560540279787732</v>
@@ -952,10 +988,22 @@
       <c r="E21">
         <v>0.6840013360053606</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="F21">
+        <v>2.379873611643061</v>
+      </c>
+      <c r="G21">
+        <v>9.224120406567639</v>
+      </c>
+      <c r="H21">
+        <v>-8.326533676533671</v>
+      </c>
+      <c r="I21">
+        <v>-0.6171370768775243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B22">
         <v>-0.1575098245950372</v>
@@ -966,10 +1014,22 @@
       <c r="D22">
         <v>0.634001336005352</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="E22">
+        <v>2.329873611643053</v>
+      </c>
+      <c r="F22">
+        <v>9.174120406567631</v>
+      </c>
+      <c r="G22">
+        <v>-8.376533676533679</v>
+      </c>
+      <c r="H22">
+        <v>-0.6671370768775329</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B23">
         <v>-0.4831784653702459</v>
@@ -977,13 +1037,61 @@
       <c r="C23">
         <v>0.4340013360053464</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="D23">
+        <v>2.279873611643053</v>
+      </c>
+      <c r="E23">
+        <v>9.223120406567634</v>
+      </c>
+      <c r="F23">
+        <v>-8.327533676533676</v>
+      </c>
+      <c r="G23">
+        <v>-0.6181370768775289</v>
+      </c>
+      <c r="H23">
+        <v>0.9647755840093826</v>
+      </c>
+      <c r="I23">
+        <v>-2.001511408339873</v>
+      </c>
+      <c r="J23">
+        <v>0.2625197463245897</v>
+      </c>
+      <c r="K23">
+        <v>-0.1886344086021489</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B24">
         <v>0.414001336005393</v>
+      </c>
+      <c r="C24">
+        <v>2.269873611643048</v>
+      </c>
+      <c r="D24">
+        <v>9.164120406567623</v>
+      </c>
+      <c r="E24">
+        <v>-8.346533676533667</v>
+      </c>
+      <c r="F24">
+        <v>-0.6271370768775294</v>
+      </c>
+      <c r="G24">
+        <v>1.015775584009385</v>
+      </c>
+      <c r="H24">
+        <v>-1.950511408339871</v>
+      </c>
+      <c r="I24">
+        <v>0.2935197463245814</v>
+      </c>
+      <c r="J24">
+        <v>-0.1976344086021493</v>
       </c>
     </row>
   </sheetData>
